--- a/ValueSet-hiv-transmission-route.xlsx
+++ b/ValueSet-hiv-transmission-route.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T07:57:57+00:00</t>
+    <t>2022-11-01T11:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-transmission-route.xlsx
+++ b/ValueSet-hiv-transmission-route.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T11:33:15+00:00</t>
+    <t>2022-11-01T11:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-transmission-route.xlsx
+++ b/ValueSet-hiv-transmission-route.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T11:55:26+00:00</t>
+    <t>2022-11-01T12:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-transmission-route.xlsx
+++ b/ValueSet-hiv-transmission-route.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T12:01:37+00:00</t>
+    <t>2022-11-01T12:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
